--- a/medicine/Psychotrope/Roaix_(côtes-du-rhône_villages)/Roaix_(côtes-du-rhône_villages).xlsx
+++ b/medicine/Psychotrope/Roaix_(côtes-du-rhône_villages)/Roaix_(côtes-du-rhône_villages).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le roaix[2], ou côtes-du-rhône villages Roaix, est un vin produit sur la commune de Roaix, dans le département de Vaucluse.
+Le roaix, ou côtes-du-rhône villages Roaix, est un vin produit sur la commune de Roaix, dans le département de Vaucluse.
 Il s'agit d'une des vingt et une dénominations géographiques au sein de l'appellation d'origine contrôlée côtes-du-rhône villages, dans la partie méridionale du vignoble de la vallée du Rhône.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité au Moyen Âge
-Une hypogée chalcolithique contenant 30 corps a été fouillé au quartier des Crottes. Ce fut Arnaud de Bedos, commandeur de Richerenches qui fonda une maison du temple sur ce lieu en 1138. Après la dissolution de l'Ordre par Clément V au concile de Vienne ce fief passa aux chevaliers de Rhodes, puis les Hospitaliers le rétrocédèrent à Jean XXII en 1317.
-Période moderne
-Au cours de cette période ce fief devint une co-seigneurie tenue en paréage par les familles de Vaesc, Choyselat, Belli et de Prato. Cette dernière famille possédait encore ce fief à la Révolution.
-Période contemporaine
-La cave coopérative de Roaix-Séguret a été fondée en 1960. C'est la plus récente du département. Le 2 novembre 1966, les vins de la commune eurent droit à postuler à l'appellation côtes-du-rhône villages. Ce décret à depuis été modifié le 12 février 1999[3].
+          <t>Antiquité au Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une hypogée chalcolithique contenant 30 corps a été fouillé au quartier des Crottes. Ce fut Arnaud de Bedos, commandeur de Richerenches qui fonda une maison du temple sur ce lieu en 1138. Après la dissolution de l'Ordre par Clément V au concile de Vienne ce fief passa aux chevaliers de Rhodes, puis les Hospitaliers le rétrocédèrent à Jean XXII en 1317.
 </t>
         </is>
       </c>
@@ -531,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La plus ancienne graphie attestée est Roaix en 1138. Aucune racine ligure, celte, grecque ou latine ne pouvant expliquer ce toponyme, il a été suggéré, pour cette possession templière, Er-roha, nom arabe d'Édesse[4].
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de cette période ce fief devint une co-seigneurie tenue en paréage par les familles de Vaesc, Choyselat, Belli et de Prato. Cette dernière famille possédait encore ce fief à la Révolution.
 </t>
         </is>
       </c>
@@ -562,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,146 +596,611 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cave coopérative de Roaix-Séguret a été fondée en 1960. C'est la plus récente du département. Le 2 novembre 1966, les vins de la commune eurent droit à postuler à l'appellation côtes-du-rhône villages. Ce décret à depuis été modifié le 12 février 1999.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus ancienne graphie attestée est Roaix en 1138. Aucune racine ligure, celte, grecque ou latine ne pouvant expliquer ce toponyme, il a été suggéré, pour cette possession templière, Er-roha, nom arabe d'Édesse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette dénomination, située dans le nord du Vaucluse, est enchâssée entre l'appellation rasteau et la dénomination séguret.
-Orographie
-La commune se situe sur la « montagne » de Ventabren. Les pentes de ses coteaux exposés plein sud font un paravent au mistral.
-Géologie
-Ce terroir se compose de terrasses graveleuses ou caillouteuses où se mêlent de l'argile rouge décalcifiée.
-Climatologie
-Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps[5]. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette dénomination, située dans le nord du Vaucluse, est enchâssée entre l'appellation rasteau et la dénomination séguret.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commune se situe sur la « montagne » de Ventabren. Les pentes de ses coteaux exposés plein sud font un paravent au mistral.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce terroir se compose de terrasses graveleuses ou caillouteuses où se mêlent de l'argile rouge décalcifiée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
 Le mistral assainit le vignoble ;
 La saisonnalité des pluies est très marquée ;
 Les températures sont très chaudes pendant l'été.
-Tableau comparatif des précipitations relevées en nord Vaucluse lors de l'année 2006[6].
-Températures relevées en nord Vaucluse lors de l'année 2006[6].
+Tableau comparatif des précipitations relevées en nord Vaucluse lors de l'année 2006.
+Températures relevées en nord Vaucluse lors de l'année 2006.
 Tableau des différentes vitesses du mistral enregistrées et à sa fréquence au cours de l'année 2006. Une partie du  vignoble est protégée du mistral par la montagne de Vaison-la-Romaine.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Le vignoble s'étend sur la seule commune de Roaix. Il couvre plus de 85 % des terres cultivées. Ce terroir est la plus petite appellation des côtes-du-rhône villages.
-Encépagement
-Les rouges sont principalement faits à partir du grenache N, complété par de la syrah N, du mourvèdre N et accessoirement du brun argenté N (localement dénommé camarèse ou vaccarèse), du carignan N, du cinsaut N, de la counoise N, du muscardin N, du piquepoul noir N et du terret noir N. 
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur la seule commune de Roaix. Il couvre plus de 85 % des terres cultivées. Ce terroir est la plus petite appellation des côtes-du-rhône villages.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rouges sont principalement faits à partir du grenache N, complété par de la syrah N, du mourvèdre N et accessoirement du brun argenté N (localement dénommé camarèse ou vaccarèse), du carignan N, du cinsaut N, de la counoise N, du muscardin N, du piquepoul noir N et du terret noir N. 
 Les blancs sont principalement faits avec du grenache blanc B, de la clairette B, de la Marsanne B, de la roussanne B, du bourboulenc B et du viognier B, complétés accessoirement par du piquepoul blanc B et de l'ugni blanc B.
-Méthodes culturales et réglementaires
-Le degré alcoolique minimum est pour les rouges de 12,5 %, pour les rosés et les blancs, il doit atteindre 12 %. Les vignes sont conduites en taille courte gobelet ou cordon), chaque cep devant comporter au maximum six coursons à deux yeux francs. Seul le viognier peut être mené en taille Guyot[8].
-Terroir et vins
-Le vignoble situé sur les contreforts de la « montagne » de Ventabren ou sur les anciennes terrasses du diluvium alpin produit des vins d'une grande qualité tant en blanc, rosé et rouge.
-Les millésimes
-Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Méthodes culturales et réglementaires</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le degré alcoolique minimum est pour les rouges de 12,5 %, pour les rosés et les blancs, il doit atteindre 12 %. Les vignes sont conduites en taille courte gobelet ou cordon), chaque cep devant comporter au maximum six coursons à deux yeux francs. Seul le viognier peut être mené en taille Guyot.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Terroir et vins</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble situé sur les contreforts de la « montagne » de Ventabren ou sur les anciennes terrasses du diluvium alpin produit des vins d'une grande qualité tant en blanc, rosé et rouge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Les millésimes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
 Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
-Structure des exploitations
-Sur la commune, il existe trois caves indépendantes, tous les autres viticulteurs adhérent à la Cave des Vignerons.
-Type de vins et gastronomie
-Les rouges évoluent des arômes de fruits à noyau en leur prime jeunesse vers des notes de cuir et de truffes en vieillissant. Ce sont des vins de grande garde - dix ans et plus - traditionnellement conseillés sur du gibier et de la venaison et ils s'accordent parfaitement avec les daubes (avignonnaise ou provençale), les civets de chevreuil, de lièvre ou de sanglier et avec une gardianne de taureau. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur la commune, il existe trois caves indépendantes, tous les autres viticulteurs adhérent à la Cave des Vignerons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rouges évoluent des arômes de fruits à noyau en leur prime jeunesse vers des notes de cuir et de truffes en vieillissant. Ce sont des vins de grande garde - dix ans et plus - traditionnellement conseillés sur du gibier et de la venaison et ils s'accordent parfaitement avec les daubes (avignonnaise ou provençale), les civets de chevreuil, de lièvre ou de sanglier et avec une gardianne de taureau. 
 Le rosé, en fonction de sa vinification - par saignée ou par pressurage -  peut se garder entre 2 ou 4 ans. C'est un vin à boire à table avec les charcuteries et les fromages. Il s'accorde parfaitement avec la cuisine asiatique.
 Le blanc, traditionnellement, est conseillé soit en apéritif, soit sur des poissons, coquillages et crustacés. Il se révèle parfait en accompagnement d'un fromage de chèvre.
-Commercialisation
-La commercialisation, sur le marché intérieur, se fait à partir des CHR, cavistes, grande distribution, salons pour les particuliers et les professionnels. À l'exportation, les plus importants marchés se trouvent en Europe.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commercialisation, sur le marché intérieur, se fait à partir des CHR, cavistes, grande distribution, salons pour les particuliers et les professionnels. À l'exportation, les plus importants marchés se trouvent en Europe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Les principaux producteurs de l'appellation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cave des vignerons de Roaix-Séguret
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Cave des vignerons de Roaix-Séguret
 Domaine des Auzières (sur la commune)
 Domaine Santa Duc (de Gigondas possédant un vignoble à Roaix) site
-[1] Domaine de la Martine (84110 Roaix)
-Domaine de pique-basse(sur la commune)
-Caveaux de dégustation
-Une charte de qualité, à laquelle adhèrent caves et domaines de Roaix, a été mise en place dans la vallée du Rhône par Inter Rhône[9]. Elle propose trois catégories différentes d'accueil en fonction des prestations offertes par les professionnels[10]. 
-La première - dite accueil de qualité - définit les conditions de cet accueil. Un panneau à l'entrée doit signaler que celui-ci est adhérent à la charte. Ce qui exige que ses abords soient en parfait état et entretenus et qu'il dispose d'un parking proche. L'intérieur du caveau doit disposer d'un sanitaire et d'un point d'eau, les visiteurs peuvent s'asseoir et ils ont de plus l'assurance que locaux et ensemble du matériel utilisé sont d'une propreté irréprochable (sols, table de dégustation, crachoirs, verres)[9].
-L'achat de vin à l'issue de la dégustation n'est jamais obligatoire. Celle-ci s'est faite dans des verres de qualité (minimum INAO). Les vins ont été servis à température idéale et les enfants se sont vu proposer des jus de fruits ou des jus de raisin. Outre l'affichage de ses horaires et des permanences, le caveau dispose de fiches techniques sur les vins, affiche les prix et offre des brochures touristiques sur l'appellation[9]. 
+ Domaine de la Martine (84110 Roaix)
+Domaine de pique-basse(sur la commune)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Les principaux producteurs de l'appellation</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Caveaux de dégustation</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une charte de qualité, à laquelle adhèrent caves et domaines de Roaix, a été mise en place dans la vallée du Rhône par Inter Rhône. Elle propose trois catégories différentes d'accueil en fonction des prestations offertes par les professionnels. 
+La première - dite accueil de qualité - définit les conditions de cet accueil. Un panneau à l'entrée doit signaler que celui-ci est adhérent à la charte. Ce qui exige que ses abords soient en parfait état et entretenus et qu'il dispose d'un parking proche. L'intérieur du caveau doit disposer d'un sanitaire et d'un point d'eau, les visiteurs peuvent s'asseoir et ils ont de plus l'assurance que locaux et ensemble du matériel utilisé sont d'une propreté irréprochable (sols, table de dégustation, crachoirs, verres).
+L'achat de vin à l'issue de la dégustation n'est jamais obligatoire. Celle-ci s'est faite dans des verres de qualité (minimum INAO). Les vins ont été servis à température idéale et les enfants se sont vu proposer des jus de fruits ou des jus de raisin. Outre l'affichage de ses horaires et des permanences, le caveau dispose de fiches techniques sur les vins, affiche les prix et offre des brochures touristiques sur l'appellation. 
 Caveaux à Roaix
-La seconde - dite accueil de service - précise que le caveau est ouvert cinq jours sur sept toute l'année et six jours sur sept de juin à septembre. La dégustation se fait dans des verres cristallins voire en cristal. Accessible aux personnes à mobilité réduite, il est chauffé l'hiver et frais l'été, de plus il dispose d'un éclairage satisfaisant (néons interdits). Sa décoration est en relation avec la vigne et le vin, une carte de l'appellation est affichée. Il dispose d'un site internet et fournit à sa clientèle des informations sur la gastronomie et les produits agroalimentaires locaux, les lieux touristiques et les autres caveaux adhérant à la charte. Des plus les fiches techniques sur les vins proposés sont disponibles en anglais[11]
+La seconde - dite accueil de service - précise que le caveau est ouvert cinq jours sur sept toute l'année et six jours sur sept de juin à septembre. La dégustation se fait dans des verres cristallins voire en cristal. Accessible aux personnes à mobilité réduite, il est chauffé l'hiver et frais l'été, de plus il dispose d'un éclairage satisfaisant (néons interdits). Sa décoration est en relation avec la vigne et le vin, une carte de l'appellation est affichée. Il dispose d'un site internet et fournit à sa clientèle des informations sur la gastronomie et les produits agroalimentaires locaux, les lieux touristiques et les autres caveaux adhérant à la charte. Des plus les fiches techniques sur les vins proposés sont disponibles en anglais
 Caveaux à Roaix
-La troisième - dite accueil d'excellence - propose d'autres services dont la mise en relation avec d'autres caveaux, la réservation de restaurants ou d'hébergements. Le caveau assure l'expédition en France pour un minimum de vingt-quatre bouteilles. Il dispose d'un site Internet en version anglaise et le personnel d'accueil parle au moins l'anglais[12].
+La troisième - dite accueil d'excellence - propose d'autres services dont la mise en relation avec d'autres caveaux, la réservation de restaurants ou d'hébergements. Le caveau assure l'expédition en France pour un minimum de vingt-quatre bouteilles. Il dispose d'un site Internet en version anglaise et le personnel d'accueil parle au moins l'anglais.
 Caveaux à Roaix
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Roaix_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roaix_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Place du Roaix parmi les côtes-du-rhône villages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
